--- a/Prompts/TextPrompts.xlsx
+++ b/Prompts/TextPrompts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Diamond Research Scholars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\Documents\GitHub\TypingTest\Prompts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29EE2A0-9026-4F6C-9EB5-2C49FD041F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAAFA38-B7A8-47CB-98C6-F09D46E8D518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EFB62EAE-3DA0-4D52-B3A4-86DCE3E87660}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>Haptics 2022 Prompts</t>
   </si>
@@ -174,6 +174,27 @@
   </si>
   <si>
     <t>OR YOU MIGHT GET COLD FEET.</t>
+  </si>
+  <si>
+    <t>0= gj</t>
+  </si>
+  <si>
+    <t>10 = pt 1 hs</t>
+  </si>
+  <si>
+    <t>11 = pt 2 hs</t>
+  </si>
+  <si>
+    <t>12 = pt 3 hs</t>
+  </si>
+  <si>
+    <t>13 = pt 1 irl</t>
+  </si>
+  <si>
+    <t>14 = pt 2 irl</t>
+  </si>
+  <si>
+    <t>15 = pt 3 irl</t>
   </si>
 </sst>
 </file>
@@ -235,27 +256,27 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452AC001-92E6-42EE-99D8-ACCD56D7ED3F}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,113 +609,113 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="10">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="K3">
         <v>6</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="M3">
         <v>7</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="O3">
         <v>8</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="Q3">
         <v>9</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -703,603 +724,624 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3">
+      <c r="B17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="5">
-        <v>4</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2">
         <v>5</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="2">
         <v>6</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="3">
         <v>7</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="3">
         <v>8</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="7">
-        <v>4</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3">
         <v>5</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <v>7</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="2">
         <v>9</v>
       </c>
-      <c r="F20" s="5">
-        <v>3</v>
-      </c>
-      <c r="G20" s="5">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
         <v>8</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="1">
         <v>6</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5">
-        <v>3</v>
-      </c>
-      <c r="C22" s="5">
-        <v>4</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="B21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="L21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>5</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>2</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3">
         <v>7</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="3">
         <v>9</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="L22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3">
+      <c r="B23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="L23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="1">
         <v>8</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>9</v>
       </c>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
         <v>6</v>
       </c>
-      <c r="F24" s="7">
-        <v>4</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="F24" s="3">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
         <v>5</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="2">
         <v>7</v>
       </c>
-      <c r="I24" s="5">
-        <v>3</v>
-      </c>
-      <c r="J24" s="5">
+      <c r="I24" s="2">
+        <v>3</v>
+      </c>
+      <c r="J24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="L24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="7">
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="L25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="3">
         <v>6</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="3">
         <v>7</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="1">
         <v>8</v>
       </c>
-      <c r="F26" s="3">
-        <v>2</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3</v>
-      </c>
-      <c r="H26" s="5">
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="2">
         <v>9</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <v>5</v>
       </c>
-      <c r="J26" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="J26" s="2">
+        <v>4</v>
+      </c>
+      <c r="L26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="5">
+      <c r="B27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="L27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="2">
         <v>1</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="2">
         <v>6</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="2">
         <v>9</v>
       </c>
-      <c r="E28" s="3">
-        <v>4</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1">
         <v>7</v>
       </c>
-      <c r="G28" s="3">
-        <v>2</v>
-      </c>
-      <c r="H28" s="7">
-        <v>3</v>
-      </c>
-      <c r="I28" s="7">
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3</v>
+      </c>
+      <c r="I28" s="3">
         <v>5</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="7">
+      <c r="B29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="3">
         <v>6</v>
       </c>
-      <c r="C30" s="7">
-        <v>3</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3">
         <v>7</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="1">
         <v>5</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="1">
         <v>9</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" s="5">
-        <v>2</v>
-      </c>
-      <c r="I30" s="5">
-        <v>4</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="H30" s="2">
+        <v>2</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="3">
+      <c r="B31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="1">
         <v>9</v>
       </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
         <v>8</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="2">
         <v>6</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="2">
         <v>7</v>
       </c>
-      <c r="G32" s="5">
-        <v>3</v>
-      </c>
-      <c r="H32" s="7">
+      <c r="G32" s="2">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3">
         <v>1</v>
       </c>
-      <c r="I32" s="7">
-        <v>4</v>
-      </c>
-      <c r="J32" s="7">
+      <c r="I32" s="3">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="B33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="5">
-        <v>4</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="A34" s="10"/>
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2">
         <v>9</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="2">
         <v>8</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="3">
         <v>7</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="3">
         <v>6</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="3">
         <v>5</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="1">
         <v>1</v>
       </c>
-      <c r="I34" s="3">
-        <v>3</v>
-      </c>
-      <c r="J34" s="3">
+      <c r="I34" s="1">
+        <v>3</v>
+      </c>
+      <c r="J34" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="B35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="7">
+      <c r="A36" s="10"/>
+      <c r="B36" s="3">
         <v>5</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="3">
         <v>8</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="3">
         <v>6</v>
       </c>
-      <c r="E36" s="5">
-        <v>2</v>
-      </c>
-      <c r="F36" s="5">
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
         <v>7</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="2">
         <v>9</v>
       </c>
-      <c r="H36" s="3">
-        <v>3</v>
-      </c>
-      <c r="I36" s="3">
-        <v>4</v>
-      </c>
-      <c r="J36" s="3">
+      <c r="H36" s="1">
+        <v>3</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4</v>
+      </c>
+      <c r="J36" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="B37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5">
+      <c r="A38" s="10"/>
+      <c r="B38" s="2">
         <v>7</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="2">
         <v>9</v>
       </c>
-      <c r="D38" s="5">
-        <v>3</v>
-      </c>
-      <c r="E38" s="7">
-        <v>4</v>
-      </c>
-      <c r="F38" s="7">
+      <c r="D38" s="2">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3">
         <v>8</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="3">
         <v>5</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="1">
         <v>6</v>
       </c>
-      <c r="I38" s="3">
-        <v>2</v>
-      </c>
-      <c r="J38" s="3">
+      <c r="I38" s="1">
+        <v>2</v>
+      </c>
+      <c r="J38" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="B39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="1">
         <v>5</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="1">
         <v>6</v>
       </c>
-      <c r="D40" s="3">
-        <v>4</v>
-      </c>
-      <c r="E40" s="7">
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3">
         <v>7</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="3">
         <v>9</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="3">
         <v>1</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="2">
         <v>8</v>
       </c>
-      <c r="I40" s="5">
-        <v>3</v>
-      </c>
-      <c r="J40" s="5">
+      <c r="I40" s="2">
+        <v>3</v>
+      </c>
+      <c r="J40" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1309,17 +1351,17 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
@@ -1332,20 +1374,20 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="8"/>
+      <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
@@ -1358,20 +1400,20 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-      <c r="K48" s="8"/>
+      <c r="K48" s="4"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
@@ -1384,20 +1426,20 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
-      <c r="K50" s="8"/>
+      <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
@@ -1410,20 +1452,20 @@
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
-      <c r="K52" s="8"/>
+      <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
@@ -1436,20 +1478,20 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
-      <c r="K54" s="8"/>
+      <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
@@ -1462,20 +1504,20 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
-      <c r="K56" s="8"/>
+      <c r="K56" s="4"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
@@ -1488,20 +1530,20 @@
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
-      <c r="K58" s="8"/>
+      <c r="K58" s="4"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
@@ -1514,20 +1556,20 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-      <c r="K60" s="8"/>
+      <c r="K60" s="4"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
@@ -1540,20 +1582,20 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-      <c r="K62" s="8"/>
+      <c r="K62" s="4"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
@@ -1566,20 +1608,20 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
-      <c r="K64" s="8"/>
+      <c r="K64" s="4"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
@@ -1592,20 +1634,20 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
-      <c r="K66" s="8"/>
+      <c r="K66" s="4"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
@@ -1618,144 +1660,65 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
-      <c r="K68" s="8"/>
+      <c r="K68" s="4"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="A35:A36"/>
@@ -1767,9 +1730,88 @@
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="A60:A61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prompts/TextPrompts.xlsx
+++ b/Prompts/TextPrompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\Documents\GitHub\TypingTest\Prompts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAAFA38-B7A8-47CB-98C6-F09D46E8D518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27114E6-7FBA-4686-83CF-5AE45FF8122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EFB62EAE-3DA0-4D52-B3A4-86DCE3E87660}"/>
+    <workbookView xWindow="-22335" yWindow="-150" windowWidth="17280" windowHeight="9420" xr2:uid="{EFB62EAE-3DA0-4D52-B3A4-86DCE3E87660}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,13 +263,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452AC001-92E6-42EE-99D8-ACCD56D7ED3F}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,21 +728,21 @@
       <c r="A17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="H17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
@@ -755,22 +755,22 @@
       <c r="D18" s="1">
         <v>3</v>
       </c>
-      <c r="E18" s="2">
-        <v>4</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>5</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>6</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>7</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>8</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>9</v>
       </c>
     </row>
@@ -778,21 +778,21 @@
       <c r="A19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="B19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
@@ -828,21 +828,21 @@
       <c r="A21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="B21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
       <c r="L21" t="s">
         <v>45</v>
       </c>
@@ -884,21 +884,21 @@
       <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="B23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
       <c r="L23" t="s">
         <v>47</v>
       </c>
@@ -940,21 +940,21 @@
       <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="B25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
       <c r="L25" t="s">
         <v>49</v>
       </c>
@@ -997,33 +997,33 @@
         <v>10</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
       <c r="L27" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>1</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>6</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>9</v>
       </c>
       <c r="E28" s="1">
@@ -1035,13 +1035,13 @@
       <c r="G28" s="1">
         <v>2</v>
       </c>
-      <c r="H28" s="3">
-        <v>3</v>
-      </c>
-      <c r="I28" s="3">
+      <c r="H28" s="2">
+        <v>3</v>
+      </c>
+      <c r="I28" s="2">
         <v>5</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1049,31 +1049,31 @@
       <c r="A29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>6</v>
       </c>
-      <c r="C30" s="3">
-        <v>3</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2">
         <v>7</v>
       </c>
       <c r="E30" s="1">
@@ -1085,13 +1085,13 @@
       <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" s="2">
-        <v>2</v>
-      </c>
-      <c r="I30" s="2">
-        <v>4</v>
-      </c>
-      <c r="J30" s="2">
+      <c r="H30" s="3">
+        <v>2</v>
+      </c>
+      <c r="I30" s="3">
+        <v>4</v>
+      </c>
+      <c r="J30" s="3">
         <v>8</v>
       </c>
     </row>
@@ -1099,21 +1099,21 @@
       <c r="A31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
@@ -1149,21 +1149,21 @@
       <c r="A33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
@@ -1199,21 +1199,21 @@
       <c r="A35" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="B35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
@@ -1249,21 +1249,21 @@
       <c r="A37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
@@ -1299,18 +1299,18 @@
       <c r="A39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="B39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -1326,22 +1326,22 @@
       <c r="D40" s="1">
         <v>4</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>7</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>9</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <v>1</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="3">
         <v>8</v>
       </c>
-      <c r="I40" s="2">
-        <v>3</v>
-      </c>
-      <c r="J40" s="2">
+      <c r="I40" s="3">
+        <v>3</v>
+      </c>
+      <c r="J40" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1721,6 +1721,13 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A39:A40"/>
@@ -1733,15 +1740,17 @@
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H29:J29"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="H33:J33"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E31:G31"/>
     <mergeCell ref="H31:J31"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="H39:J39"/>
@@ -1749,6 +1758,8 @@
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="E46:G46"/>
     <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="E48:G48"/>
@@ -1757,14 +1768,10 @@
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="H50:J50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:J62"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="E56:G56"/>
@@ -1773,29 +1780,23 @@
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="E58:G58"/>
     <mergeCell ref="H58:J58"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A60:A61"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="B37:D37"/>
@@ -1811,7 +1812,6 @@
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="E66:G66"/>
     <mergeCell ref="H66:J66"/>
-    <mergeCell ref="A60:A61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
